--- a/Records/Elemental reactions.xlsx
+++ b/Records/Elemental reactions.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eilrovisoft\books\Alone World\Records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BF7B25-9AF5-4EBD-92E9-8F9DBAAF5042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA04F9EF-00A1-4727-9705-67FF3E4F3E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="1" xr2:uid="{8E560F43-CA46-4052-9A41-F4BB8CCA4652}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="2" xr2:uid="{8E560F43-CA46-4052-9A41-F4BB8CCA4652}"/>
   </bookViews>
   <sheets>
     <sheet name="Магия" sheetId="1" r:id="rId1"/>
     <sheet name="Реакции" sheetId="2" r:id="rId2"/>
+    <sheet name="Описания" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="128">
   <si>
     <t>Аэротеургия</t>
   </si>
@@ -172,39 +173,21 @@
     <t>Некропламя</t>
   </si>
   <si>
-    <t>Гнение</t>
-  </si>
-  <si>
     <t>Нейтрализация</t>
   </si>
   <si>
     <t>Заморозка</t>
   </si>
   <si>
-    <t>Кристаллическая детонация</t>
-  </si>
-  <si>
-    <t>Взрыв</t>
-  </si>
-  <si>
-    <t>Бриз</t>
-  </si>
-  <si>
     <t>Охлаждение</t>
   </si>
   <si>
-    <t>Замедление жизни</t>
-  </si>
-  <si>
     <t>Гипотермия</t>
   </si>
   <si>
     <t>Святое пламя</t>
   </si>
   <si>
-    <t>Святая вода</t>
-  </si>
-  <si>
     <t>Кровотечение</t>
   </si>
   <si>
@@ -223,9 +206,6 @@
     <t>Шок</t>
   </si>
   <si>
-    <t>Выветривание</t>
-  </si>
-  <si>
     <t>Магнетизм</t>
   </si>
   <si>
@@ -233,13 +213,220 @@
   </si>
   <si>
     <t>Коррозия</t>
+  </si>
+  <si>
+    <t>Тепло</t>
+  </si>
+  <si>
+    <t>Обезоруживание</t>
+  </si>
+  <si>
+    <t>Обезоруживание + Уязвимый</t>
+  </si>
+  <si>
+    <t>Гниение</t>
+  </si>
+  <si>
+    <t>Окаменение</t>
+  </si>
+  <si>
+    <t>Увечье</t>
+  </si>
+  <si>
+    <t>Замедление -&gt; Увечье</t>
+  </si>
+  <si>
+    <t>Яд</t>
+  </si>
+  <si>
+    <t>Горение х2</t>
+  </si>
+  <si>
+    <t>Arbor</t>
+  </si>
+  <si>
+    <t>Детонация</t>
+  </si>
+  <si>
+    <t>Детонация + Перегрузка</t>
+  </si>
+  <si>
+    <t>Слабость</t>
+  </si>
+  <si>
+    <t>Ускорение</t>
+  </si>
+  <si>
+    <t>Укрепление</t>
+  </si>
+  <si>
+    <t>Удушье + Немота + Слепота</t>
+  </si>
+  <si>
+    <t>Кислота</t>
+  </si>
+  <si>
+    <t>Замедление действий</t>
+  </si>
+  <si>
+    <t>Удушье</t>
+  </si>
+  <si>
+    <t>Немота</t>
+  </si>
+  <si>
+    <t>Уязвимый</t>
+  </si>
+  <si>
+    <t>Замедление</t>
+  </si>
+  <si>
+    <t>Переодический воздушный урон; рассеивает элемент на враге, нанося комбинированный урон этого элемента + воздуха</t>
+  </si>
+  <si>
+    <t>Превращает всё входящее лечение в урон</t>
+  </si>
+  <si>
+    <t>Переодический огненный урон; стакается; повышает урон и снижает резисты к огню в зависимости от количества стаков</t>
+  </si>
+  <si>
+    <t>Мощный разовый удар, накладывающий дополнительно несколько стаков горения</t>
+  </si>
+  <si>
+    <t>Понижает скорость передвижения</t>
+  </si>
+  <si>
+    <t>Понижает скорость передвижения, скорость атаки и время подготовки способностей</t>
+  </si>
+  <si>
+    <t>Blood</t>
+  </si>
+  <si>
+    <t>Venom</t>
+  </si>
+  <si>
+    <t>Эрозия</t>
+  </si>
+  <si>
+    <t>Разложение</t>
+  </si>
+  <si>
+    <t>Предотвращает получение лечения</t>
+  </si>
+  <si>
+    <t>Название реакции</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Уничтожает часть физической брони</t>
+  </si>
+  <si>
+    <t>Существует только для игрока и понижает весь урон от атак ближнего боя</t>
+  </si>
+  <si>
+    <t>Переодический пробивающий урон сквозь броню; на вас могут действовать реакции похожие на гидро</t>
+  </si>
+  <si>
+    <t>Даёт прибавку к магической броне; повышает максимальный запас магической брони</t>
+  </si>
+  <si>
+    <t>Переодический эффект лечения</t>
+  </si>
+  <si>
+    <t>Исцеление</t>
+  </si>
+  <si>
+    <t>Повышает весь входящий физический урон; все металлические снаряды начинают притягиваться на небольшом расстоянии</t>
+  </si>
+  <si>
+    <t>Понижает сопротивление к воде и воздуху и повышает сопротивление к огню</t>
+  </si>
+  <si>
+    <t>Два статус эффекта, конфликтуя, уничтожают друг друга</t>
+  </si>
+  <si>
+    <t>Переодический огненный урон (повышен относительно горения); стакается; конвертирует все стаки горения в некропламя</t>
+  </si>
+  <si>
+    <t>Невозможность кастовать заклинания и умения, потребляющие ману</t>
+  </si>
+  <si>
+    <t>Невозможность использовать оружие</t>
+  </si>
+  <si>
+    <t>Нельзя выполнять любые действия; предотвращает любые эффекты контроля; понижает резист к воде и повышает к огню</t>
+  </si>
+  <si>
+    <t>Нельзя выполнять любые действия; предотвращает любые эффекты контроля; понижает резист к земле и повышает все другие резисты</t>
+  </si>
+  <si>
+    <t>Слегка замедляет; понижает резисты к воде и льду и повышает резисты к огню; следующая атака льдом гарантировано заморозит</t>
+  </si>
+  <si>
+    <t>Увеличивает урон водной/огненной инстанции урона</t>
+  </si>
+  <si>
+    <t>Понижает все резисты; понижает шанс доджа; слегка понижает статы</t>
+  </si>
+  <si>
+    <t>Повышает сопротивления ко всем типам урона; повышает шанс доджа; слегка повышает все статы</t>
+  </si>
+  <si>
+    <t>Понижает физические и электро резисты</t>
+  </si>
+  <si>
+    <t>Святое пламя + Исцеление</t>
+  </si>
+  <si>
+    <t>Невосприимчивость к любому пиро урону</t>
+  </si>
+  <si>
+    <t>Понижает весь наносимый урон</t>
+  </si>
+  <si>
+    <t>Увеличивает урон ледяной/огненной инстанции урона</t>
+  </si>
+  <si>
+    <t>Понижает пиро резист и повышает гидро резист</t>
+  </si>
+  <si>
+    <t>Сильно снижает мобильность</t>
+  </si>
+  <si>
+    <t>Переодический пробивающий и воздушный урон</t>
+  </si>
+  <si>
+    <t>Магический панцирь</t>
+  </si>
+  <si>
+    <t>Даёт прибавку к физической броне; повышает максимальный запас физической брони</t>
+  </si>
+  <si>
+    <t>Повышает скорость передвижения</t>
+  </si>
+  <si>
+    <t>Повышает весь входящий урон; имеет уникальные взамодействия с элементами</t>
+  </si>
+  <si>
+    <t>Нельзя выполнять любые действия; понижает сопротивление к электричеству</t>
+  </si>
+  <si>
+    <t>Переодический электрический урон</t>
+  </si>
+  <si>
+    <t>Наносит большой урон по маленькой области; откидывает близлежащие сущности</t>
+  </si>
+  <si>
+    <t>Переодический природный урон; имеет уникальные взаимодействия с другими элементами</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,8 +443,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,6 +483,11 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -467,14 +667,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -653,15 +854,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="20% — акцент2" xfId="2" builtinId="34"/>
     <cellStyle name="20% — акцент5" xfId="3" builtinId="46"/>
     <cellStyle name="20% — акцент6" xfId="4" builtinId="50"/>
     <cellStyle name="60% — акцент1" xfId="1" builtinId="32"/>
+    <cellStyle name="Нейтральный" xfId="5" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -672,6 +947,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72DA2624-4372-4ECD-B6AC-CD6C6FF431F7}" name="Таблица1" displayName="Таблица1" ref="A1:B40" totalsRowShown="0">
+  <autoFilter ref="A1:B40" xr:uid="{72DA2624-4372-4ECD-B6AC-CD6C6FF431F7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B41">
+    <sortCondition ref="A1:A41"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{025E1D33-D8D0-4404-942B-74DC42B7A383}" name="Название реакции" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{AECC628E-4315-48D7-A126-F8AE0A9F4170}" name="Описание" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -974,7 +1263,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1137,15 +1426,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2661A0-C4AF-4DA8-A666-091C88F00EA1}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="11" width="15.625" customWidth="1"/>
     <col min="12" max="13" width="9" customWidth="1"/>
   </cols>
@@ -1165,10 +1454,10 @@
         <v>27</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="H1" s="39" t="s">
         <v>29</v>
@@ -1183,68 +1472,86 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="27.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="40"/>
+        <v>89</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>59</v>
+      </c>
       <c r="E2" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="F2" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="H2" s="40" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="41"/>
-    </row>
-    <row r="3" spans="1:13" ht="28.55" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="46" t="str">
         <f>IF(C$2="","",C$2)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D3" s="43" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="44"/>
+        <v>56</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>71</v>
+      </c>
       <c r="H3" s="43" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I3" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="44"/>
+      <c r="J3" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>38</v>
+      </c>
       <c r="L3" s="35"/>
       <c r="M3" s="35"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="40" t="str">
         <f>IF(D$2="","",D$2)</f>
-        <v/>
+        <v>Тепло</v>
       </c>
       <c r="C4" s="41" t="str">
         <f>IF(D$3="","",D$3)</f>
@@ -1254,10 +1561,14 @@
         <v>41</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
+        <v>69</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>67</v>
+      </c>
       <c r="H4" s="40" t="s">
         <v>42</v>
       </c>
@@ -1268,12 +1579,12 @@
         <v>44</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
     </row>
-    <row r="5" spans="1:13" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>27</v>
       </c>
@@ -1283,104 +1594,126 @@
       </c>
       <c r="C5" s="44" t="str">
         <f>IF(E$3="","",E$3)</f>
-        <v>Кристаллическая детонация</v>
+        <v>Детонация + Перегрузка</v>
       </c>
       <c r="D5" s="43" t="str">
         <f>IF(E$4="","",E$4)</f>
-        <v>Взрыв</v>
+        <v>Детонация</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
+        <v>80</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>38</v>
+      </c>
       <c r="H5" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I5" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="44"/>
+      <c r="J5" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="44" t="s">
+        <v>73</v>
+      </c>
       <c r="L5" s="35"/>
       <c r="M5" s="35"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B6" s="40" t="str">
         <f>IF(F$2="","",F$2)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C6" s="41" t="str">
         <f>IF(F$3="","",F$3)</f>
         <v>Магнетизм</v>
       </c>
-      <c r="D6" s="40" t="str">
+      <c r="D6" s="64" t="str">
         <f>IF(F$4="","",F$4)</f>
-        <v/>
+        <v>Обезоруживание + Уязвимый</v>
       </c>
       <c r="E6" s="41" t="str">
         <f>IF(F$5="","",F$5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="41"/>
+        <v>50</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="L6" s="35"/>
       <c r="M6" s="35"/>
     </row>
-    <row r="7" spans="1:13" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="B7" s="43" t="str">
         <f>IF(G$2="","",G$2)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C7" s="44" t="str">
         <f>IF(G$3="","",G$3)</f>
-        <v/>
+        <v>Слабость</v>
       </c>
       <c r="D7" s="43" t="str">
         <f>IF(G$4="","",G$4)</f>
-        <v/>
+        <v>Горение х2</v>
       </c>
       <c r="E7" s="45" t="str">
         <f>IF(G$5="","",G$5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F7" s="43" t="str">
         <f>IF(G$6="","",G$6)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G7" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="43"/>
+        <v>65</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>66</v>
+      </c>
       <c r="I7" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="44"/>
+        <v>76</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>38</v>
+      </c>
       <c r="L7" s="35"/>
       <c r="M7" s="35"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="40" t="str">
         <f>IF(H$2="","",H$2)</f>
-        <v>Бриз</v>
+        <v>-</v>
       </c>
       <c r="C8" s="41" t="str">
         <f>IF(H$3="","",H$3)</f>
@@ -1394,30 +1727,30 @@
         <f>IF(H$5="","",H$5)</f>
         <v>Нейтрализация</v>
       </c>
-      <c r="F8" s="46" t="str">
+      <c r="F8" s="1" t="str">
         <f>IF(H$6="","",H$6)</f>
-        <v>Коррозия</v>
+        <v>-</v>
       </c>
       <c r="G8" s="41" t="str">
         <f>IF(H$7="","",H$7)</f>
-        <v/>
+        <v>Яд</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I8" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J8" s="42" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
     </row>
-    <row r="9" spans="1:13" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>32</v>
       </c>
@@ -1437,39 +1770,41 @@
         <f>IF(I$5="","",I$5)</f>
         <v>-</v>
       </c>
-      <c r="F9" s="43" t="str">
+      <c r="F9" s="65" t="str">
         <f>IF(I$6="","",I$6)</f>
-        <v/>
+        <v>Обезоруживание + Уязвимый</v>
       </c>
       <c r="G9" s="44" t="str">
         <f>IF(I$7="","",I$7)</f>
-        <v>Замедление жизни</v>
+        <v>Замедление действий</v>
       </c>
       <c r="H9" s="46" t="str">
         <f>IF(I$8="","",I$8)</f>
         <v>Заморозка</v>
       </c>
       <c r="I9" s="44" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="44"/>
+        <v>48</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>120</v>
+      </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="40" t="str">
         <f>IF(J$2="","",J$2)</f>
-        <v/>
+        <v>Удушье + Немота + Слепота</v>
       </c>
       <c r="C10" s="41" t="str">
         <f>IF(J$3="","",J$3)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="46" t="str">
         <f>IF(J$4="","",J$4)</f>
@@ -1477,80 +1812,516 @@
       </c>
       <c r="E10" s="47" t="str">
         <f>IF(J$5="","",J$5)</f>
-        <v/>
+        <v>Окаменение</v>
       </c>
       <c r="F10" s="46" t="str">
         <f>IF(J$6="","",J$6)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G10" s="48" t="str">
         <f>IF(J$7="","",J$7)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H10" s="40" t="str">
         <f>IF(J$8="","",J$8)</f>
-        <v>Гнение</v>
+        <v>Гниение</v>
       </c>
       <c r="I10" s="47" t="str">
         <f>IF(J$9="","",J$9)</f>
         <v>Гипотермия</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K10" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="43" t="str">
         <f>IF(K$2="","",K$2)</f>
-        <v/>
+        <v>Ускорение</v>
       </c>
       <c r="C11" s="44" t="str">
         <f>IF(K$3="","",K$3)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D11" s="43" t="str">
         <f>IF(K$4="","",K$4)</f>
-        <v>Святое пламя</v>
+        <v>Святое пламя + Исцеление</v>
       </c>
       <c r="E11" s="44" t="str">
         <f>IF(K$5="","",K$5)</f>
-        <v/>
+        <v>Укрепление</v>
       </c>
       <c r="F11" s="43" t="str">
         <f>IF(K$6="","",K$6)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G11" s="44" t="str">
         <f>IF(K$7="","",K$7)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H11" s="43" t="str">
         <f>IF(K$8="","",K$8)</f>
-        <v>Святая вода</v>
+        <v>Исцеление</v>
       </c>
       <c r="I11" s="44" t="str">
         <f>IF(K$9="","",K$9)</f>
-        <v/>
+        <v>Магический панцирь</v>
       </c>
       <c r="J11" s="45" t="str">
         <f>IF(K$10="","",K$10)</f>
         <v>Нейтрализация</v>
       </c>
       <c r="K11" s="44" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
     </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="66"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:A55">
+    <sortCondition ref="A13:A55"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526C7350-B795-44B2-860F-ACC03F727DF5}">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="60.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="73"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A9" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A11" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A12" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A13" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A15" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A16" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A22" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A24" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="73" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A25" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="73" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="73" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="73" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A34" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="73" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="73" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A36" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A37" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="73" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A39" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="73" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A40" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="73" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="79"/>
+      <c r="B41" s="60"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>